--- a/传感器/物位开关/音叉物位开关/迈安德物料定义-01属性表-外购设备-音叉物位开关.xlsx
+++ b/传感器/物位开关/音叉物位开关/迈安德物料定义-01属性表-外购设备-音叉物位开关.xlsx
@@ -2102,7 +2102,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2039</t>
+          <t>probematerial1</t>
         </is>
       </c>
       <c r="H26" s="1">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>7001</t>
+          <t>probematerial2</t>
         </is>
       </c>
       <c r="H27" s="1">
